--- a/dataset/data_Example1.xlsx
+++ b/dataset/data_Example1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ebenetce\MATLAB\CentralBanks\p1760464\githubtests\Nowcasting_toolbox\dataset\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C9751C19-5AE9-4D48-99E5-97E3A74E0ACF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4B5638DA-D80D-47E3-BCA8-CE8D7179EEFD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="38290" yWindow="-110" windowWidth="38620" windowHeight="21100" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -24,6 +24,7 @@
   <definedNames>
     <definedName name="_DLX8.INC">Monthly!$3:$4</definedName>
     <definedName name="_DLX9.INC">Quarterly!$A$3:$A$4</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">Quarterly!$A$1:$C$320</definedName>
   </definedNames>
   <calcPr calcId="191029" calcMode="manual"/>
   <extLst>
@@ -342,7 +343,7 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="46">
+  <cellXfs count="43">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -452,13 +453,6 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -34750,10 +34744,10 @@
   <sheetPr>
     <tabColor theme="1"/>
   </sheetPr>
-  <dimension ref="A1:I320"/>
+  <dimension ref="A1:C307"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A151" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="C219" sqref="C219"/>
+    <sheetView tabSelected="1" topLeftCell="A206" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="C231" sqref="C231"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -37202,250 +37196,127 @@
       <c r="B230" s="13"/>
     </row>
     <row r="231" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B231" s="13" t="str">
-        <f>IF(ISNUMBER(#REF!),#REF!,"")</f>
-        <v/>
-      </c>
+      <c r="B231" s="13"/>
     </row>
     <row r="232" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B232" s="13" t="str">
-        <f>IF(ISNUMBER(#REF!),#REF!,"")</f>
-        <v/>
-      </c>
+      <c r="B232" s="13"/>
     </row>
     <row r="233" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B233" s="13" t="str">
-        <f>IF(ISNUMBER(#REF!),#REF!,"")</f>
-        <v/>
-      </c>
+      <c r="B233" s="13"/>
     </row>
     <row r="234" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B234" s="13" t="str">
-        <f>IF(ISNUMBER(#REF!),#REF!,"")</f>
-        <v/>
-      </c>
+      <c r="B234" s="13"/>
     </row>
     <row r="235" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B235" s="13" t="str">
-        <f>IF(ISNUMBER(#REF!),#REF!,"")</f>
-        <v/>
-      </c>
+      <c r="B235" s="13"/>
     </row>
     <row r="236" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B236" s="13" t="str">
-        <f>IF(ISNUMBER(#REF!),#REF!,"")</f>
-        <v/>
-      </c>
+      <c r="B236" s="13"/>
     </row>
     <row r="237" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B237" s="13" t="str">
-        <f>IF(ISNUMBER(#REF!),#REF!,"")</f>
-        <v/>
-      </c>
+      <c r="B237" s="13"/>
     </row>
     <row r="238" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B238" s="13" t="str">
-        <f>IF(ISNUMBER(#REF!),#REF!,"")</f>
-        <v/>
-      </c>
+      <c r="B238" s="13"/>
     </row>
     <row r="239" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B239" s="13" t="str">
-        <f>IF(ISNUMBER(#REF!),#REF!,"")</f>
-        <v/>
-      </c>
+      <c r="B239" s="13"/>
     </row>
     <row r="240" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B240" s="13" t="str">
-        <f>IF(ISNUMBER(#REF!),#REF!,"")</f>
-        <v/>
-      </c>
+      <c r="B240" s="13"/>
     </row>
     <row r="241" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B241" s="13" t="str">
-        <f>IF(ISNUMBER(#REF!),#REF!,"")</f>
-        <v/>
-      </c>
+      <c r="B241" s="13"/>
     </row>
     <row r="242" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B242" s="13" t="str">
-        <f>IF(ISNUMBER(#REF!),#REF!,"")</f>
-        <v/>
-      </c>
+      <c r="B242" s="13"/>
     </row>
     <row r="243" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B243" s="13" t="str">
-        <f>IF(ISNUMBER(#REF!),#REF!,"")</f>
-        <v/>
-      </c>
+      <c r="B243" s="13"/>
     </row>
     <row r="244" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B244" s="13" t="str">
-        <f>IF(ISNUMBER(#REF!),#REF!,"")</f>
-        <v/>
-      </c>
+      <c r="B244" s="13"/>
     </row>
     <row r="245" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B245" s="13" t="str">
-        <f>IF(ISNUMBER(#REF!),#REF!,"")</f>
-        <v/>
-      </c>
+      <c r="B245" s="13"/>
     </row>
     <row r="246" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B246" s="13" t="str">
-        <f>IF(ISNUMBER(#REF!),#REF!,"")</f>
-        <v/>
-      </c>
+      <c r="B246" s="13"/>
     </row>
     <row r="247" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B247" s="13" t="str">
-        <f>IF(ISNUMBER(#REF!),#REF!,"")</f>
-        <v/>
-      </c>
+      <c r="B247" s="13"/>
     </row>
     <row r="248" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B248" s="13" t="str">
-        <f>IF(ISNUMBER(#REF!),#REF!,"")</f>
-        <v/>
-      </c>
+      <c r="B248" s="13"/>
     </row>
     <row r="249" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B249" s="13" t="str">
-        <f>IF(ISNUMBER(#REF!),#REF!,"")</f>
-        <v/>
-      </c>
+      <c r="B249" s="13"/>
     </row>
     <row r="250" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B250" s="13" t="str">
-        <f>IF(ISNUMBER(#REF!),#REF!,"")</f>
-        <v/>
-      </c>
+      <c r="B250" s="13"/>
     </row>
     <row r="251" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B251" s="13" t="str">
-        <f>IF(ISNUMBER(#REF!),#REF!,"")</f>
-        <v/>
-      </c>
+      <c r="B251" s="13"/>
     </row>
     <row r="252" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B252" s="13" t="str">
-        <f>IF(ISNUMBER(#REF!),#REF!,"")</f>
-        <v/>
-      </c>
+      <c r="B252" s="13"/>
     </row>
     <row r="253" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B253" s="13" t="str">
-        <f>IF(ISNUMBER(#REF!),#REF!,"")</f>
-        <v/>
-      </c>
+      <c r="B253" s="13"/>
     </row>
     <row r="254" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B254" s="13" t="str">
-        <f>IF(ISNUMBER(#REF!),#REF!,"")</f>
-        <v/>
-      </c>
+      <c r="B254" s="13"/>
     </row>
     <row r="255" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B255" s="13" t="str">
-        <f>IF(ISNUMBER(#REF!),#REF!,"")</f>
-        <v/>
-      </c>
+      <c r="B255" s="13"/>
     </row>
     <row r="256" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B256" s="13" t="str">
-        <f>IF(ISNUMBER(#REF!),#REF!,"")</f>
-        <v/>
-      </c>
+      <c r="B256" s="13"/>
     </row>
     <row r="257" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B257" s="13" t="str">
-        <f>IF(ISNUMBER(#REF!),#REF!,"")</f>
-        <v/>
-      </c>
+      <c r="B257" s="13"/>
     </row>
     <row r="258" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B258" s="13" t="str">
-        <f>IF(ISNUMBER(#REF!),#REF!,"")</f>
-        <v/>
-      </c>
+      <c r="B258" s="13"/>
     </row>
     <row r="259" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B259" s="13" t="str">
-        <f>IF(ISNUMBER(#REF!),#REF!,"")</f>
-        <v/>
-      </c>
+      <c r="B259" s="13"/>
     </row>
     <row r="260" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B260" s="13" t="str">
-        <f>IF(ISNUMBER(#REF!),#REF!,"")</f>
-        <v/>
-      </c>
+      <c r="B260" s="13"/>
     </row>
     <row r="261" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B261" s="13" t="str">
-        <f>IF(ISNUMBER(#REF!),#REF!,"")</f>
-        <v/>
-      </c>
+      <c r="B261" s="13"/>
     </row>
     <row r="262" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B262" s="13" t="str">
-        <f>IF(ISNUMBER(#REF!),#REF!,"")</f>
-        <v/>
-      </c>
+      <c r="B262" s="13"/>
     </row>
     <row r="263" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B263" s="13" t="str">
-        <f>IF(ISNUMBER(#REF!),#REF!,"")</f>
-        <v/>
-      </c>
+      <c r="B263" s="13"/>
     </row>
     <row r="264" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B264" s="13" t="str">
-        <f>IF(ISNUMBER(#REF!),#REF!,"")</f>
-        <v/>
-      </c>
+      <c r="B264" s="13"/>
     </row>
     <row r="265" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B265" s="13" t="str">
-        <f>IF(ISNUMBER(#REF!),#REF!,"")</f>
-        <v/>
-      </c>
+      <c r="B265" s="13"/>
     </row>
     <row r="266" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B266" s="13" t="str">
-        <f>IF(ISNUMBER(#REF!),#REF!,"")</f>
-        <v/>
-      </c>
+      <c r="B266" s="13"/>
     </row>
     <row r="267" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B267" s="13" t="str">
-        <f>IF(ISNUMBER(#REF!),#REF!,"")</f>
-        <v/>
-      </c>
+      <c r="B267" s="13"/>
     </row>
     <row r="268" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B268" s="13" t="str">
-        <f>IF(ISNUMBER(#REF!),#REF!,"")</f>
-        <v/>
-      </c>
+      <c r="B268" s="13"/>
     </row>
     <row r="269" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B269" s="13" t="str">
-        <f>IF(ISNUMBER(#REF!),#REF!,"")</f>
-        <v/>
-      </c>
+      <c r="B269" s="13"/>
     </row>
     <row r="270" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B270" s="13" t="str">
-        <f>IF(ISNUMBER(#REF!),#REF!,"")</f>
-        <v/>
-      </c>
+      <c r="B270" s="13"/>
     </row>
     <row r="271" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B271" s="13" t="str">
-        <f>IF(ISNUMBER(#REF!),#REF!,"")</f>
-        <v/>
-      </c>
+      <c r="B271" s="13"/>
     </row>
     <row r="272" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B272" s="13"/>
@@ -37498,317 +37369,62 @@
     <row r="288" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B288" s="13"/>
     </row>
-    <row r="289" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="289" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B289" s="13"/>
     </row>
-    <row r="290" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="290" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B290" s="13"/>
     </row>
-    <row r="291" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="291" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B291" s="13"/>
     </row>
-    <row r="292" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="292" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B292" s="13"/>
     </row>
-    <row r="293" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="293" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B293" s="13"/>
     </row>
-    <row r="294" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A294" s="43"/>
-      <c r="B294" s="44"/>
-      <c r="C294" s="45"/>
-      <c r="D294" s="45"/>
-      <c r="E294" s="45"/>
-      <c r="F294" s="45"/>
-      <c r="G294" s="45"/>
-      <c r="H294" s="45"/>
-      <c r="I294" s="45"/>
-    </row>
-    <row r="295" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A295" s="43"/>
-      <c r="B295" s="44"/>
-      <c r="C295" s="45"/>
-      <c r="D295" s="45"/>
-      <c r="E295" s="45"/>
-      <c r="F295" s="45"/>
-      <c r="G295" s="45"/>
-      <c r="H295" s="45"/>
-      <c r="I295" s="45"/>
-    </row>
-    <row r="296" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A296" s="43"/>
-      <c r="B296" s="44"/>
-      <c r="C296" s="45"/>
-      <c r="D296" s="45"/>
-      <c r="E296" s="45"/>
-      <c r="F296" s="45"/>
-      <c r="G296" s="45"/>
-      <c r="H296" s="45"/>
-      <c r="I296" s="45"/>
-    </row>
-    <row r="297" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A297" s="43"/>
-      <c r="B297" s="44"/>
-      <c r="C297" s="45"/>
-      <c r="D297" s="45"/>
-      <c r="E297" s="45"/>
-      <c r="F297" s="45"/>
-      <c r="G297" s="45"/>
-      <c r="H297" s="45"/>
-      <c r="I297" s="45"/>
-    </row>
-    <row r="298" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A298" s="43"/>
-      <c r="B298" s="44"/>
-      <c r="C298" s="45"/>
-      <c r="D298" s="45"/>
-      <c r="E298" s="45"/>
-      <c r="F298" s="45"/>
-      <c r="G298" s="45"/>
-      <c r="H298" s="45"/>
-      <c r="I298" s="45"/>
-    </row>
-    <row r="299" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A299" s="43"/>
-      <c r="B299" s="44"/>
-      <c r="C299" s="45"/>
-      <c r="D299" s="45"/>
-      <c r="E299" s="45"/>
-      <c r="F299" s="45"/>
-      <c r="G299" s="45"/>
-      <c r="H299" s="45"/>
-      <c r="I299" s="45"/>
-    </row>
-    <row r="300" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A300" s="43"/>
-      <c r="B300" s="44"/>
-      <c r="C300" s="45"/>
-      <c r="D300" s="45"/>
-      <c r="E300" s="45"/>
-      <c r="F300" s="45"/>
-      <c r="G300" s="45"/>
-      <c r="H300" s="45"/>
-      <c r="I300" s="45"/>
-    </row>
-    <row r="301" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A301" s="43"/>
-      <c r="B301" s="44"/>
-      <c r="C301" s="45"/>
-      <c r="D301" s="45"/>
-      <c r="E301" s="45"/>
-      <c r="F301" s="45"/>
-      <c r="G301" s="45"/>
-      <c r="H301" s="45"/>
-      <c r="I301" s="45"/>
-    </row>
-    <row r="302" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A302" s="43"/>
-      <c r="B302" s="44"/>
-      <c r="C302" s="45"/>
-      <c r="D302" s="45"/>
-      <c r="E302" s="45"/>
-      <c r="F302" s="45"/>
-      <c r="G302" s="45"/>
-      <c r="H302" s="45"/>
-      <c r="I302" s="45"/>
-    </row>
-    <row r="303" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A303" s="43"/>
-      <c r="B303" s="44"/>
-      <c r="C303" s="45"/>
-      <c r="D303" s="45"/>
-      <c r="E303" s="45"/>
-      <c r="F303" s="45"/>
-      <c r="G303" s="45"/>
-      <c r="H303" s="45"/>
-      <c r="I303" s="45"/>
-    </row>
-    <row r="304" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A304" s="43"/>
-      <c r="B304" s="44"/>
-      <c r="C304" s="45"/>
-      <c r="D304" s="45"/>
-      <c r="E304" s="45"/>
-      <c r="F304" s="45"/>
-      <c r="G304" s="45"/>
-      <c r="H304" s="45"/>
-      <c r="I304" s="45"/>
-    </row>
-    <row r="305" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A305" s="43"/>
-      <c r="B305" s="44"/>
-      <c r="C305" s="45"/>
-      <c r="D305" s="45"/>
-      <c r="E305" s="45"/>
-      <c r="F305" s="45"/>
-      <c r="G305" s="45"/>
-      <c r="H305" s="45"/>
-      <c r="I305" s="45"/>
-    </row>
-    <row r="306" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A306" s="43"/>
-      <c r="B306" s="44"/>
-      <c r="C306" s="45"/>
-      <c r="D306" s="45"/>
-      <c r="E306" s="45"/>
-      <c r="F306" s="45"/>
-      <c r="G306" s="45"/>
-      <c r="H306" s="45"/>
-      <c r="I306" s="45"/>
-    </row>
-    <row r="307" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A307" s="43"/>
-      <c r="B307" s="44"/>
-      <c r="C307" s="45"/>
-      <c r="D307" s="45"/>
-      <c r="E307" s="45"/>
-      <c r="F307" s="45"/>
-      <c r="G307" s="45"/>
-      <c r="H307" s="45"/>
-      <c r="I307" s="45"/>
-    </row>
-    <row r="308" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A308" s="43"/>
-      <c r="B308" s="45"/>
-      <c r="C308" s="45"/>
-      <c r="D308" s="45"/>
-      <c r="E308" s="45"/>
-      <c r="F308" s="45"/>
-      <c r="G308" s="45"/>
-      <c r="H308" s="45"/>
-      <c r="I308" s="45"/>
-    </row>
-    <row r="309" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A309" s="43"/>
-      <c r="B309" s="45"/>
-      <c r="C309" s="45"/>
-      <c r="D309" s="45"/>
-      <c r="E309" s="45"/>
-      <c r="F309" s="45"/>
-      <c r="G309" s="45"/>
-      <c r="H309" s="45"/>
-      <c r="I309" s="45"/>
-    </row>
-    <row r="310" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A310" s="43"/>
-      <c r="B310" s="45"/>
-      <c r="C310" s="45"/>
-      <c r="D310" s="45"/>
-      <c r="E310" s="45"/>
-      <c r="F310" s="45"/>
-      <c r="G310" s="45"/>
-      <c r="H310" s="45"/>
-      <c r="I310" s="45"/>
-    </row>
-    <row r="311" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A311" s="43"/>
-      <c r="B311" s="45"/>
-      <c r="C311" s="45"/>
-      <c r="D311" s="45"/>
-      <c r="E311" s="45"/>
-      <c r="F311" s="45"/>
-      <c r="G311" s="45"/>
-      <c r="H311" s="45"/>
-      <c r="I311" s="45"/>
-    </row>
-    <row r="312" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A312" s="43"/>
-      <c r="B312" s="45"/>
-      <c r="C312" s="45"/>
-      <c r="D312" s="45"/>
-      <c r="E312" s="45"/>
-      <c r="F312" s="45"/>
-      <c r="G312" s="45"/>
-      <c r="H312" s="45"/>
-      <c r="I312" s="45"/>
-    </row>
-    <row r="313" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A313" s="43"/>
-      <c r="B313" s="45"/>
-      <c r="C313" s="45"/>
-      <c r="D313" s="45"/>
-      <c r="E313" s="45"/>
-      <c r="F313" s="45"/>
-      <c r="G313" s="45"/>
-      <c r="H313" s="45"/>
-      <c r="I313" s="45"/>
-    </row>
-    <row r="314" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A314" s="43"/>
-      <c r="B314" s="45"/>
-      <c r="C314" s="45"/>
-      <c r="D314" s="45"/>
-      <c r="E314" s="45"/>
-      <c r="F314" s="45"/>
-      <c r="G314" s="45"/>
-      <c r="H314" s="45"/>
-      <c r="I314" s="45"/>
-    </row>
-    <row r="315" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A315" s="43"/>
-      <c r="B315" s="45"/>
-      <c r="C315" s="45"/>
-      <c r="D315" s="45"/>
-      <c r="E315" s="45"/>
-      <c r="F315" s="45"/>
-      <c r="G315" s="45"/>
-      <c r="H315" s="45"/>
-      <c r="I315" s="45"/>
-    </row>
-    <row r="316" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A316" s="43"/>
-      <c r="B316" s="45"/>
-      <c r="C316" s="45"/>
-      <c r="D316" s="45"/>
-      <c r="E316" s="45"/>
-      <c r="F316" s="45"/>
-      <c r="G316" s="45"/>
-      <c r="H316" s="45"/>
-      <c r="I316" s="45"/>
-    </row>
-    <row r="317" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A317" s="43"/>
-      <c r="B317" s="45"/>
-      <c r="C317" s="45"/>
-      <c r="D317" s="45"/>
-      <c r="E317" s="45"/>
-      <c r="F317" s="45"/>
-      <c r="G317" s="45"/>
-      <c r="H317" s="45"/>
-      <c r="I317" s="45"/>
-    </row>
-    <row r="318" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A318" s="43"/>
-      <c r="B318" s="45"/>
-      <c r="C318" s="45"/>
-      <c r="D318" s="45"/>
-      <c r="E318" s="45"/>
-      <c r="F318" s="45"/>
-      <c r="G318" s="45"/>
-      <c r="H318" s="45"/>
-      <c r="I318" s="45"/>
-    </row>
-    <row r="319" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A319" s="43"/>
-      <c r="B319" s="45"/>
-      <c r="C319" s="45"/>
-      <c r="D319" s="45"/>
-      <c r="E319" s="45"/>
-      <c r="F319" s="45"/>
-      <c r="G319" s="45"/>
-      <c r="H319" s="45"/>
-      <c r="I319" s="45"/>
-    </row>
-    <row r="320" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A320" s="43"/>
-      <c r="B320" s="45"/>
-      <c r="C320" s="45"/>
-      <c r="D320" s="45"/>
-      <c r="E320" s="45"/>
-      <c r="F320" s="45"/>
-      <c r="G320" s="45"/>
-      <c r="H320" s="45"/>
-      <c r="I320" s="45"/>
+    <row r="294" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B294" s="13"/>
+    </row>
+    <row r="295" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B295" s="13"/>
+    </row>
+    <row r="296" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B296" s="13"/>
+    </row>
+    <row r="297" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B297" s="13"/>
+    </row>
+    <row r="298" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B298" s="13"/>
+    </row>
+    <row r="299" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B299" s="13"/>
+    </row>
+    <row r="300" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B300" s="13"/>
+    </row>
+    <row r="301" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B301" s="13"/>
+    </row>
+    <row r="302" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B302" s="13"/>
+    </row>
+    <row r="303" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B303" s="13"/>
+    </row>
+    <row r="304" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B304" s="13"/>
+    </row>
+    <row r="305" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B305" s="13"/>
+    </row>
+    <row r="306" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B306" s="13"/>
+    </row>
+    <row r="307" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B307" s="13"/>
     </row>
   </sheetData>
   <phoneticPr fontId="4" type="noConversion"/>
